--- a/info-auto.xlsx
+++ b/info-auto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="公司名称" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>名称</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>httpx处理状态</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1277,7 +1280,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1304,8 +1307,8 @@
   <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1333,7 +1336,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A2:D9"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1358,7 +1361,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="A5:D11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1377,13 +1380,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1391,6 +1394,11 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/info-auto.xlsx
+++ b/info-auto.xlsx
@@ -1,242 +1,199 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20490" windowHeight="7755" tabRatio="600" firstSheet="1" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="公司名称" sheetId="1" r:id="rId1"/>
-    <sheet name="顶级域名" sheetId="2" r:id="rId2"/>
-    <sheet name="子域名" sheetId="3" r:id="rId3"/>
-    <sheet name="非CDN-IP" sheetId="4" r:id="rId4"/>
-    <sheet name="云IP+非云IP扩段" sheetId="5" r:id="rId5"/>
-    <sheet name="IP端口" sheetId="6" r:id="rId6"/>
-    <sheet name="http汇总" sheetId="7" r:id="rId7"/>
-    <sheet name="http解析" sheetId="8" r:id="rId8"/>
+    <sheet name="公司名称" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="公司名" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="顶级域名" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="子域名" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="非CDN-IP" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="云IP+非云IP扩段" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="IP端口" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="http汇总" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="http解析" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>host处理状态</t>
-  </si>
-  <si>
-    <t>对应ip</t>
-  </si>
-  <si>
-    <t>nali处理状态</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>masscan处理状态</t>
-  </si>
-  <si>
-    <t>httpx处理状态</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="23">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <sz val="12"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -428,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -549,161 +506,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -951,7 +920,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -960,7 +929,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -973,11 +942,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1237,197 +1269,338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>二级子公司</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>ICP</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>host处理状态</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>对应ip</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>nali处理状态</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>masscan处理状态</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>httpx处理状态</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>127.0.0.1:81</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>www.baidu.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>192.168.100.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>192.168.100.1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>127.0.0.1:81</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>www.baidu.com</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/info-auto.xlsx
+++ b/info-auto.xlsx
@@ -1,199 +1,246 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20490" windowHeight="7755" tabRatio="600" firstSheet="1" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="公司名称" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="公司名" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="顶级域名" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="子域名" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="非CDN-IP" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="云IP+非云IP扩段" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="IP端口" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="http汇总" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="http解析" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="公司名称" sheetId="1" r:id="rId1"/>
+    <sheet name="公司名" sheetId="2" r:id="rId2"/>
+    <sheet name="顶级域名" sheetId="3" r:id="rId3"/>
+    <sheet name="子域名" sheetId="4" r:id="rId4"/>
+    <sheet name="非CDN-IP" sheetId="5" r:id="rId5"/>
+    <sheet name="云IP+非云IP扩段" sheetId="6" r:id="rId6"/>
+    <sheet name="IP端口" sheetId="7" r:id="rId7"/>
+    <sheet name="http汇总" sheetId="8" r:id="rId8"/>
+    <sheet name="http解析" sheetId="9" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>二级子公司</t>
+  </si>
+  <si>
+    <t>ICP</t>
+  </si>
+  <si>
+    <t>host处理状态</t>
+  </si>
+  <si>
+    <t>对应ip</t>
+  </si>
+  <si>
+    <t>nali处理状态</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>masscan处理状态</t>
+  </si>
+  <si>
+    <t>httpx处理状态</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="23">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -385,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -506,173 +553,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -920,7 +955,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -929,7 +964,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -942,74 +977,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1269,338 +1241,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>二级子公司</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>ICP</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>host处理状态</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>对应ip</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>nali处理状态</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>类型</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>masscan处理状态</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C6" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>httpx处理状态</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>127.0.0.1:81</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>处理</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>www.baidu.com</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>处理</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>192.168.100.1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>处理</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>类型</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>192.168.100.1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>127.0.0.1:81</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>www.baidu.com</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>200</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>